--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2029.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2029.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.155065450849289</v>
+        <v>1.176679611206055</v>
       </c>
       <c r="B1">
-        <v>2.357098818598832</v>
+        <v>2.395702600479126</v>
       </c>
       <c r="C1">
-        <v>6.735170273861312</v>
+        <v>6.489742279052734</v>
       </c>
       <c r="D1">
-        <v>2.365883206280671</v>
+        <v>2.061849594116211</v>
       </c>
       <c r="E1">
-        <v>1.222132539377358</v>
+        <v>1.199370980262756</v>
       </c>
     </row>
   </sheetData>
